--- a/mySkills/translate/output/1.xlsx
+++ b/mySkills/translate/output/1.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,76 +440,168 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>44b2f02a-28ef-4795-8f3c-fd009fc59a54</v>
+        <v>62e5eb5d-edb3-4542-b98a-dfd2fd8afd19</v>
       </c>
       <c r="B2" t="str">
-        <v>请选择需要操作的曲线</v>
+        <v xml:space="preserve">密码长度过长; </v>
       </c>
       <c r="C2" t="str">
-        <v>CMyCurveDefinition</v>
+        <v/>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>curve_base_widget</v>
+        <v>pt/sec_privilege</v>
       </c>
       <c r="F2" t="str">
-        <v>Please select the curve to be operated</v>
+        <v>Password length is too long;</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>中文不规范: 词条前后有多余空格</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>8f803d4b-2ee3-41d7-9ab8-39c9d6651cd5</v>
+        <v>739df750-462e-4ed6-a1a8-d03dc6b0af30</v>
       </c>
       <c r="B3" t="str">
-        <v>创建图元失败</v>
+        <v xml:space="preserve">必须包含大写字母; </v>
       </c>
       <c r="C3" t="str">
-        <v>DlgIconAttrEdit</v>
+        <v/>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>gui_grapheditor</v>
+        <v>pt/sec_privilege</v>
       </c>
       <c r="F3" t="str">
-        <v>Failed to create icon</v>
+        <v>Must contain uppercase letters;</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>中文不规范: 词条前后有多余空格</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>7b2cc408-b3c2-4a6d-91e2-2c4aa0757e83</v>
+        <v>49106a6a-781e-4e51-ba07-b41b34d0cf64</v>
       </c>
       <c r="B4" t="str">
-        <v>请确认是否删除当前画面类型以及画面类型下所有的画面目录和画面</v>
+        <v xml:space="preserve">必须包含数字; </v>
       </c>
       <c r="C4" t="str">
-        <v>PicNodeList</v>
+        <v/>
       </c>
       <c r="D4" t="str">
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>graphic_msg_handler</v>
+        <v>pt/sec_privilege</v>
       </c>
       <c r="F4" t="str">
-        <v>Please confirm whether to delete the current graph type and all the graph directories and graphs under the graph type</v>
+        <v>Must contain numbers;</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>中文不规范: 词条前后有多余空格</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>a7f272ad-c9ee-4880-9776-15f8b1775780</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve">不能包含用户名; </v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>pt/sec_privilege</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Cannot contain username;</v>
+      </c>
+      <c r="G5" t="str">
+        <v>中文不规范: 词条前后有多余空格</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>a80883e2-5143-4238-a4d0-d61bda5156ac</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">必须包含特殊字符; </v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>pt/sec_privilege</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Must contain special characters;</v>
+      </c>
+      <c r="G6" t="str">
+        <v>中文不规范: 词条前后有多余空格</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6bbade63-6be2-46f3-879e-1faecb24cb9e</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve">密码长度过短; </v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>pt/sec_privilege</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Password length is too short;</v>
+      </c>
+      <c r="G7" t="str">
+        <v>中文不规范: 词条前后有多余空格</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>c71c8ec9-15ee-412f-9c7d-0ddf18af6862</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve">必须包含小写字母; </v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>pt/sec_privilege</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Must contain lowercase letters;</v>
+      </c>
+      <c r="G8" t="str">
+        <v>中文不规范: 词条前后有多余空格</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>